--- a/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_High methylated DNA_3/CDH1_High methylated DNA_3_bisconv_table.xlsx
+++ b/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_High methylated DNA_3/CDH1_High methylated DNA_3_bisconv_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
   </si>
 </sst>
 </file>
@@ -1254,18 +1251,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="n">
-        <v>19</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_High methylated DNA_3/CDH1_High methylated DNA_3_bisconv_table.xlsx
+++ b/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_High methylated DNA_3/CDH1_High methylated DNA_3_bisconv_table.xlsx
@@ -542,11 +542,9 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
@@ -556,11 +554,9 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
         <v>1</v>
       </c>
@@ -570,11 +566,9 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="n">
         <v>1</v>
       </c>
@@ -584,11 +578,9 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C5"/>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -598,11 +590,9 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
         <v>1</v>
       </c>
@@ -612,11 +602,9 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C7"/>
       <c r="D7" t="n">
         <v>1</v>
       </c>
@@ -626,11 +614,9 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8"/>
       <c r="D8" t="n">
         <v>1</v>
       </c>
@@ -640,11 +626,9 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C9"/>
       <c r="D9" t="n">
         <v>1</v>
       </c>
@@ -654,11 +638,9 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" t="n">
         <v>1</v>
       </c>
@@ -668,11 +650,9 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C11"/>
       <c r="D11" t="n">
         <v>1</v>
       </c>
@@ -682,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -696,10 +676,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -710,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -724,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -738,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -752,10 +732,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -766,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -780,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -794,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -808,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -822,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -836,127 +816,147 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1136,120 +1136,120 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>29</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>28</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>27</v>
-      </c>
-      <c r="C50"/>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
-      </c>
-      <c r="C52"/>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>24</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>23</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>21</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
